--- a/public/file/excel-format-import-extracurricular-student.xlsx
+++ b/public/file/excel-format-import-extracurricular-student.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOSHIBA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REAL-PROJECT\CoreMiSchool\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E102A4C-6E59-4CA6-A142-D03C4131EF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18454E15-6409-4D8A-968D-53190A2ACF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B7632053-E0F7-48C9-8DE2-F1C0414C00AB}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>0036564256</t>
   </si>
   <si>
-    <t>Contoh Format(Jangan Dihapus)</t>
-  </si>
-  <si>
     <t>Jl Krajan Gampingan</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>Nama lengkap</t>
+  </si>
+  <si>
+    <t>Contoh Format (Jangan Dihapus)</t>
   </si>
 </sst>
 </file>
@@ -137,24 +137,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -475,7 +475,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,10 +497,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -516,7 +516,7 @@
     </row>
     <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" s="9">
         <v>2</v>
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
